--- a/fuentes/contenidos/grado07/guion12/ES_CN_07_12_CO (1).xlsx
+++ b/fuentes/contenidos/grado07/guion12/ES_CN_07_12_CO (1).xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -396,9 +396,6 @@
     <t>Recursos F</t>
   </si>
   <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
     <t>RF_01_01_CO</t>
   </si>
   <si>
@@ -703,6 +700,9 @@
   </si>
   <si>
     <t>Recurso M2C-01</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
   </si>
 </sst>
 </file>
@@ -1086,18 +1086,37 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,25 +1156,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1461,12 +1461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K30"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,112 +1494,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="82" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="P1" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="97" t="s">
+      <c r="Q1" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="101" t="s">
+      <c r="R1" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="97" t="s">
+      <c r="S1" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="99" t="s">
+      <c r="T1" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="83" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="89"/>
+    <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="94"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="96"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="98"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="84"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="21"/>
       <c r="G3" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -1609,7 +1608,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>20</v>
@@ -1637,10 +1636,10 @@
         <v>124</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1648,20 +1647,20 @@
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H4" s="21">
         <v>2</v>
@@ -1670,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1692,16 +1691,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1709,20 +1708,20 @@
         <v>17</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="56">
         <v>3</v>
@@ -1731,7 +1730,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K5" s="59" t="s">
         <v>20</v>
@@ -1744,7 +1743,7 @@
         <v>32</v>
       </c>
       <c r="O5" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P5" s="54" t="s">
         <v>20</v>
@@ -1753,16 +1752,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="T5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1770,20 +1769,20 @@
         <v>17</v>
       </c>
       <c r="B6" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>137</v>
-      </c>
       <c r="D6" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" s="74">
         <v>4</v>
@@ -1792,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K6" s="45" t="s">
         <v>20</v>
@@ -1805,7 +1804,7 @@
         <v>52</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P6" s="41" t="s">
         <v>19</v>
@@ -1814,16 +1813,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="S6" s="48" t="s">
+      <c r="T6" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="U6" s="48" t="s">
         <v>128</v>
-      </c>
-      <c r="T6" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="U6" s="48" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1831,18 +1830,18 @@
         <v>17</v>
       </c>
       <c r="B7" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>137</v>
-      </c>
       <c r="D7" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="54"/>
       <c r="G7" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" s="21">
         <v>5</v>
@@ -1851,7 +1850,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K7" s="59" t="s">
         <v>20</v>
@@ -1877,31 +1876,31 @@
         <v>124</v>
       </c>
       <c r="T7" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U7" s="62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D8" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>148</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>149</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H8" s="56">
         <v>6</v>
@@ -1910,7 +1909,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -1925,42 +1924,42 @@
         <v>19</v>
       </c>
       <c r="Q8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="T8" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D9" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="F9" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="G9" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" s="21">
         <v>7</v>
@@ -1969,7 +1968,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -1984,42 +1983,42 @@
         <v>19</v>
       </c>
       <c r="Q9" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="U9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="F10" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="G10" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H10" s="21">
         <v>8</v>
@@ -2028,7 +2027,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -2043,19 +2042,19 @@
         <v>19</v>
       </c>
       <c r="Q10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="S10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2063,22 +2062,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D11" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="80" t="s">
         <v>160</v>
-      </c>
-      <c r="G11" s="103" t="s">
-        <v>161</v>
       </c>
       <c r="H11" s="56">
         <v>9</v>
@@ -2087,7 +2086,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -2109,37 +2108,37 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="T11" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="T11" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>137</v>
-      </c>
       <c r="D12" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>122</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H12" s="74">
         <v>10</v>
@@ -2148,7 +2147,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K12" s="45" t="s">
         <v>19</v>
@@ -2161,44 +2160,44 @@
         <v>52</v>
       </c>
       <c r="O12" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P12" s="41" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="R12" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="R12" s="49" t="s">
+      <c r="S12" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="T12" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="U12" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="S12" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="T12" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="U12" s="48" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D13" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="25"/>
       <c r="G13" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" s="21">
         <v>11</v>
@@ -2207,7 +2206,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>19</v>
@@ -2222,19 +2221,19 @@
         <v>19</v>
       </c>
       <c r="Q13" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="R13" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="R13" s="35" t="s">
+      <c r="S13" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="U13" s="34" t="s">
         <v>153</v>
-      </c>
-      <c r="S13" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="T13" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2242,18 +2241,18 @@
         <v>17</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D14" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H14" s="56">
         <v>12</v>
@@ -2262,7 +2261,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2282,37 +2281,37 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="T14" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="T14" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D15" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="21">
         <v>13</v>
@@ -2321,7 +2320,7 @@
         <v>19</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>19</v>
@@ -2336,40 +2335,40 @@
         <v>19</v>
       </c>
       <c r="Q15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="U15" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D16" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H16" s="21">
         <v>14</v>
@@ -2378,7 +2377,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
@@ -2393,40 +2392,40 @@
         <v>19</v>
       </c>
       <c r="Q16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D17" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H17" s="56">
         <v>15</v>
@@ -2435,7 +2434,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
@@ -2450,19 +2449,19 @@
         <v>19</v>
       </c>
       <c r="Q17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="S17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2470,20 +2469,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D18" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H18" s="21">
         <v>16</v>
@@ -2492,7 +2491,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K18" s="59" t="s">
         <v>20</v>
@@ -2514,16 +2513,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="S18" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="S18" s="62" t="s">
+      <c r="T18" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="U18" s="62" t="s">
         <v>128</v>
-      </c>
-      <c r="T18" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="U18" s="62" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2531,22 +2530,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D19" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="G19" s="55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H19" s="21">
         <v>17</v>
@@ -2555,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K19" s="59" t="s">
         <v>20</v>
@@ -2577,37 +2576,37 @@
         <v>6</v>
       </c>
       <c r="R19" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="S19" s="62" t="s">
+      <c r="T19" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="U19" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="T19" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="U19" s="62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>137</v>
-      </c>
       <c r="D20" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>122</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H20" s="43">
         <v>18</v>
@@ -2616,7 +2615,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>19</v>
@@ -2629,44 +2628,44 @@
         <v>52</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P20" s="41" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="R20" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="R20" s="49" t="s">
+      <c r="S20" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="S20" s="48" t="s">
+      <c r="T20" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="U20" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="T20" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="U20" s="48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D21" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="25"/>
       <c r="G21" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H21" s="21">
         <v>19</v>
@@ -2675,7 +2674,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>19</v>
@@ -2690,40 +2689,40 @@
         <v>19</v>
       </c>
       <c r="Q21" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="R21" s="35" t="s">
+      <c r="S21" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="S21" s="34" t="s">
+      <c r="T21" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="U21" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="T21" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="U21" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D22" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H22" s="21">
         <v>20</v>
@@ -2732,7 +2731,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2747,40 +2746,40 @@
         <v>19</v>
       </c>
       <c r="Q22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="S22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="S22" s="10" t="s">
+      <c r="T22" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="U22" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="T22" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D23" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H23" s="56">
         <v>21</v>
@@ -2789,7 +2788,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -2804,40 +2803,40 @@
         <v>19</v>
       </c>
       <c r="Q23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="S23" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="T23" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="T23" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>137</v>
-      </c>
       <c r="D24" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>122</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H24" s="74">
         <v>22</v>
@@ -2846,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K24" s="45" t="s">
         <v>19</v>
@@ -2859,44 +2858,44 @@
         <v>52</v>
       </c>
       <c r="O24" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P24" s="41" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="R24" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="R24" s="49" t="s">
+      <c r="S24" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="S24" s="48" t="s">
+      <c r="T24" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="U24" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="T24" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="U24" s="48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D25" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H25" s="21">
         <v>23</v>
@@ -2905,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
@@ -2915,45 +2914,45 @@
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="S25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="U25" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="S25" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D26" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H26" s="56">
         <v>24</v>
@@ -2962,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
@@ -2972,45 +2971,45 @@
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="S26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="U26" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="S26" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="79" t="s">
-        <v>137</v>
-      </c>
       <c r="D27" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41"/>
       <c r="G27" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H27" s="74">
         <v>25</v>
@@ -3019,7 +3018,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K27" s="45" t="s">
         <v>19</v>
@@ -3029,40 +3028,40 @@
       </c>
       <c r="M27" s="47"/>
       <c r="N27" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O27" s="41"/>
       <c r="P27" s="41" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="R27" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="R27" s="49" t="s">
+      <c r="S27" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="S27" s="48" t="s">
+      <c r="T27" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="U27" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="T27" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="U27" s="48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D28" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
@@ -3076,7 +3075,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>20</v>
@@ -3101,18 +3100,18 @@
         <v>17</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D29" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="103" t="s">
-        <v>133</v>
+      <c r="G29" s="80" t="s">
+        <v>132</v>
       </c>
       <c r="H29" s="56">
         <v>27</v>
@@ -3121,7 +3120,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3141,16 +3140,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S29" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S29" s="10" t="s">
+      <c r="T29" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="U29" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3158,18 +3157,18 @@
         <v>17</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D30" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="103" t="s">
-        <v>218</v>
+      <c r="G30" s="80" t="s">
+        <v>217</v>
       </c>
       <c r="H30" s="21">
         <v>28</v>
@@ -3178,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3198,16 +3197,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S30" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S30" s="10" t="s">
+      <c r="T30" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="U30" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="U30" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4216,21 +4215,7 @@
     <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U30">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4245,6 +4230,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
